--- a/MDTruckE4.xlsx
+++ b/MDTruckE4.xlsx
@@ -794,7 +794,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:G44" totalsRowShown="0">
   <autoFilter ref="A1:G44"/>
   <sortState ref="A2:G44">
-    <sortCondition ref="A1:A33"/>
+    <sortCondition ref="A1:A44"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="NO" dataDxfId="6"/>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1770,7 @@
         <v>7190</v>
       </c>
       <c r="E30" s="9">
-        <v>2600</v>
+        <v>26000</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>25</v>

--- a/MDTruckE4.xlsx
+++ b/MDTruckE4.xlsx
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
   <si>
     <t>NO</t>
   </si>
@@ -379,6 +379,18 @@
   </si>
   <si>
     <t>FM 340 PD E4</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>4X2</t>
+  </si>
+  <si>
+    <t>6X2</t>
+  </si>
+  <si>
+    <t>6X4</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -517,13 +529,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,13 +631,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -791,19 +853,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H44" totalsRowShown="0">
+  <autoFilter ref="A1:H44"/>
   <sortState ref="A2:G44">
     <sortCondition ref="A1:A44"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="NO" dataDxfId="6"/>
-    <tableColumn id="2" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" name="PS" dataDxfId="4"/>
-    <tableColumn id="4" name="Wheelbase (WB)" dataDxfId="3"/>
-    <tableColumn id="5" name="GVW" dataDxfId="2"/>
-    <tableColumn id="6" name="MAKE" dataDxfId="1"/>
-    <tableColumn id="7" name="SEGMENT" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="NO" dataDxfId="7"/>
+    <tableColumn id="2" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" name="PS" dataDxfId="5"/>
+    <tableColumn id="4" name="Wheelbase (WB)" dataDxfId="4"/>
+    <tableColumn id="5" name="GVW" dataDxfId="3"/>
+    <tableColumn id="6" name="MAKE" dataDxfId="2"/>
+    <tableColumn id="7" name="SEGMENT" dataDxfId="1"/>
+    <tableColumn id="8" name="CONFIG" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1072,15 +1135,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,9 +1165,12 @@
       <c r="G1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1119,15 +1185,18 @@
       <c r="E2" s="7">
         <v>10000</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="H2" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1142,15 +1211,18 @@
       <c r="E3" s="9">
         <v>14000</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="H3" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1165,15 +1237,18 @@
       <c r="E4" s="9">
         <v>14000</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="H4" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1188,15 +1263,18 @@
       <c r="E5" s="9">
         <v>14000</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="H5" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1211,15 +1289,18 @@
       <c r="E6" s="9">
         <v>16000</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="H6" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1234,15 +1315,18 @@
       <c r="E7" s="4">
         <v>16000</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="H7" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1257,15 +1341,18 @@
       <c r="E8" s="9">
         <v>16000</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="H8" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1280,15 +1367,18 @@
       <c r="E9" s="4">
         <v>16000</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="H9" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1303,15 +1393,18 @@
       <c r="E10" s="9">
         <v>16000</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="H10" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1326,15 +1419,18 @@
       <c r="E11" s="4">
         <v>16000</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="H11" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1349,15 +1445,18 @@
       <c r="E12" s="4">
         <v>16000</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="H12" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1372,15 +1471,18 @@
       <c r="E13" s="10">
         <v>16000</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="H13" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1395,15 +1497,18 @@
       <c r="E14" s="4">
         <v>14200</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="H14" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1418,15 +1523,18 @@
       <c r="E15" s="4">
         <v>16000</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="H15" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1441,15 +1549,18 @@
       <c r="E16" s="9">
         <v>16000</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="H16" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1464,15 +1575,18 @@
       <c r="E17" s="9">
         <v>16000</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="H17" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1487,15 +1601,18 @@
       <c r="E18" s="9">
         <v>16000</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="H18" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1510,15 +1627,18 @@
       <c r="E19" s="4">
         <v>16000</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="H19" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1533,15 +1653,18 @@
       <c r="E20" s="3">
         <v>16000</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="H20" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -1556,14 +1679,17 @@
       <c r="E21" s="3">
         <v>16000</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>21</v>
       </c>
@@ -1574,8 +1700,7 @@
         <v>245</v>
       </c>
       <c r="D22" s="13">
-        <f>4115+1370</f>
-        <v>5485</v>
+        <v>4800</v>
       </c>
       <c r="E22" s="9">
         <v>26000</v>
@@ -1586,8 +1711,11 @@
       <c r="G22" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>22</v>
       </c>
@@ -1598,8 +1726,7 @@
         <v>260</v>
       </c>
       <c r="D23" s="17">
-        <f>4030+1350</f>
-        <v>5380</v>
+        <v>4705</v>
       </c>
       <c r="E23" s="3">
         <v>26000</v>
@@ -1610,8 +1737,11 @@
       <c r="G23" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>23</v>
       </c>
@@ -1622,8 +1752,7 @@
         <v>240</v>
       </c>
       <c r="D24" s="18">
-        <f>4140+1320</f>
-        <v>5460</v>
+        <v>4800</v>
       </c>
       <c r="E24" s="9">
         <v>26000</v>
@@ -1634,8 +1763,11 @@
       <c r="G24" s="24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>24</v>
       </c>
@@ -1646,8 +1778,7 @@
         <v>245</v>
       </c>
       <c r="D25" s="13">
-        <f>5825+1370</f>
-        <v>7195</v>
+        <v>6510</v>
       </c>
       <c r="E25" s="9">
         <v>26000</v>
@@ -1658,8 +1789,11 @@
       <c r="G25" s="24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>25</v>
       </c>
@@ -1670,8 +1804,7 @@
         <v>260</v>
       </c>
       <c r="D26" s="17">
-        <f>6130+1350</f>
-        <v>7480</v>
+        <v>6805</v>
       </c>
       <c r="E26" s="3">
         <v>26000</v>
@@ -1682,8 +1815,11 @@
       <c r="G26" s="24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>26</v>
       </c>
@@ -1694,8 +1830,7 @@
         <v>240</v>
       </c>
       <c r="D27" s="20">
-        <f>5870+1320</f>
-        <v>7190</v>
+        <v>6530</v>
       </c>
       <c r="E27" s="14">
         <v>26000</v>
@@ -1706,8 +1841,11 @@
       <c r="G27" s="24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>27</v>
       </c>
@@ -1718,8 +1856,7 @@
         <v>285</v>
       </c>
       <c r="D28" s="13">
-        <f>4115+1370</f>
-        <v>5485</v>
+        <v>4800</v>
       </c>
       <c r="E28" s="9">
         <v>26000</v>
@@ -1730,8 +1867,11 @@
       <c r="G28" s="24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>28</v>
       </c>
@@ -1742,8 +1882,7 @@
         <v>270</v>
       </c>
       <c r="D29" s="20">
-        <f>5870+1320</f>
-        <v>7190</v>
+        <v>6530</v>
       </c>
       <c r="E29" s="14">
         <v>26000</v>
@@ -1754,8 +1893,11 @@
       <c r="G29" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>29</v>
       </c>
@@ -1766,8 +1908,7 @@
         <v>270</v>
       </c>
       <c r="D30" s="18">
-        <f>5870+1320</f>
-        <v>7190</v>
+        <v>6530</v>
       </c>
       <c r="E30" s="9">
         <v>26000</v>
@@ -1778,8 +1919,11 @@
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>30</v>
       </c>
@@ -1790,8 +1934,7 @@
         <v>280</v>
       </c>
       <c r="D31" s="17">
-        <f>4930+1350</f>
-        <v>6280</v>
+        <v>5605</v>
       </c>
       <c r="E31" s="3">
         <v>26000</v>
@@ -1802,8 +1945,11 @@
       <c r="G31" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>31</v>
       </c>
@@ -1814,8 +1960,7 @@
         <v>285</v>
       </c>
       <c r="D32" s="13">
-        <f>5825+1370</f>
-        <v>7195</v>
+        <v>6510</v>
       </c>
       <c r="E32" s="9">
         <v>26000</v>
@@ -1826,8 +1971,11 @@
       <c r="G32" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>32</v>
       </c>
@@ -1838,8 +1986,7 @@
         <v>280</v>
       </c>
       <c r="D33" s="17">
-        <f>6130+1350</f>
-        <v>7480</v>
+        <v>6805</v>
       </c>
       <c r="E33" s="3">
         <v>26000</v>
@@ -1850,8 +1997,11 @@
       <c r="G33" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>33</v>
       </c>
@@ -1862,8 +2012,7 @@
         <v>260</v>
       </c>
       <c r="D34" s="21">
-        <f>4030+1350</f>
-        <v>5380</v>
+        <v>4705</v>
       </c>
       <c r="E34" s="3">
         <v>26000</v>
@@ -1874,8 +2023,11 @@
       <c r="G34" s="24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>34</v>
       </c>
@@ -1886,8 +2038,7 @@
         <v>285</v>
       </c>
       <c r="D35" s="3">
-        <f>4115+1370</f>
-        <v>5485</v>
+        <v>4800</v>
       </c>
       <c r="E35" s="23">
         <v>26000</v>
@@ -1898,8 +2049,11 @@
       <c r="G35" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>35</v>
       </c>
@@ -1910,8 +2064,7 @@
         <v>280</v>
       </c>
       <c r="D36" s="21">
-        <f>4030+1350</f>
-        <v>5380</v>
+        <v>4705</v>
       </c>
       <c r="E36" s="22">
         <v>26000</v>
@@ -1922,8 +2075,11 @@
       <c r="G36" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>36</v>
       </c>
@@ -1934,8 +2090,7 @@
         <v>270</v>
       </c>
       <c r="D37" s="21">
-        <f>4140+1320</f>
-        <v>5460</v>
+        <v>4800</v>
       </c>
       <c r="E37" s="9">
         <v>26000</v>
@@ -1946,8 +2101,11 @@
       <c r="G37" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>37</v>
       </c>
@@ -1958,8 +2116,7 @@
         <v>270</v>
       </c>
       <c r="D38" s="21">
-        <f>4140+1320</f>
-        <v>5460</v>
+        <v>4800</v>
       </c>
       <c r="E38" s="9">
         <v>26000</v>
@@ -1970,8 +2127,11 @@
       <c r="G38" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>38</v>
       </c>
@@ -1982,8 +2142,7 @@
         <v>285</v>
       </c>
       <c r="D39" s="3">
-        <f>5825+1370</f>
-        <v>7195</v>
+        <v>6510</v>
       </c>
       <c r="E39" s="23">
         <v>26000</v>
@@ -1994,8 +2153,11 @@
       <c r="G39" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>39</v>
       </c>
@@ -2006,8 +2168,7 @@
         <v>285</v>
       </c>
       <c r="D40" s="21">
-        <f>6130+1350</f>
-        <v>7480</v>
+        <v>6805</v>
       </c>
       <c r="E40" s="22">
         <v>26000</v>
@@ -2018,8 +2179,11 @@
       <c r="G40" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>40</v>
       </c>
@@ -2030,8 +2194,7 @@
         <v>270</v>
       </c>
       <c r="D41" s="21">
-        <f>5870+1320</f>
-        <v>7190</v>
+        <v>6530</v>
       </c>
       <c r="E41" s="9">
         <v>26000</v>
@@ -2042,8 +2205,11 @@
       <c r="G41" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>41</v>
       </c>
@@ -2054,8 +2220,7 @@
         <v>270</v>
       </c>
       <c r="D42" s="21">
-        <f>5870+1320</f>
-        <v>7190</v>
+        <v>6530</v>
       </c>
       <c r="E42" s="9">
         <v>26000</v>
@@ -2066,8 +2231,11 @@
       <c r="G42" s="24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>42</v>
       </c>
@@ -2078,8 +2246,7 @@
         <v>340</v>
       </c>
       <c r="D43" s="21">
-        <f>3480+1350</f>
-        <v>4830</v>
+        <v>4155</v>
       </c>
       <c r="E43" s="15">
         <v>26000</v>
@@ -2090,8 +2257,11 @@
       <c r="G43" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>43</v>
       </c>
@@ -2102,8 +2272,7 @@
         <v>340</v>
       </c>
       <c r="D44" s="21">
-        <f>3930+1350</f>
-        <v>5280</v>
+        <v>4605</v>
       </c>
       <c r="E44" s="15">
         <v>26000</v>
@@ -2113,6 +2282,9 @@
       </c>
       <c r="G44" s="24" t="s">
         <v>65</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/MDTruckE4.xlsx
+++ b/MDTruckE4.xlsx
@@ -173,12 +173,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="D50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>brian.tanamas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Revisi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D51" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>brian.tanamas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Revisi</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="89">
   <si>
     <t>NO</t>
   </si>
@@ -391,6 +439,60 @@
   </si>
   <si>
     <t>6X4</t>
+  </si>
+  <si>
+    <t>GVR J</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>4X2TH</t>
+  </si>
+  <si>
+    <t>FG 260 TH E4</t>
+  </si>
+  <si>
+    <t>GVR J HP ABS</t>
+  </si>
+  <si>
+    <t>SG 280 TH E4</t>
+  </si>
+  <si>
+    <t>FVZ L HP MX E4</t>
+  </si>
+  <si>
+    <t>6X4 MIXER</t>
+  </si>
+  <si>
+    <t>6X4M</t>
+  </si>
+  <si>
+    <t>FM 280 JM E4</t>
+  </si>
+  <si>
+    <t>FM 285 JL E4</t>
+  </si>
+  <si>
+    <t>GVZ K HP ABS E4</t>
+  </si>
+  <si>
+    <t>6X4TH</t>
+  </si>
+  <si>
+    <t>FM 280 TH E4</t>
+  </si>
+  <si>
+    <t>FN 62 F TH E4</t>
+  </si>
+  <si>
+    <t>GXZ K ABS E4</t>
+  </si>
+  <si>
+    <t>TH HD</t>
+  </si>
+  <si>
+    <t>FM 340 TH E4</t>
   </si>
 </sst>
 </file>
@@ -401,7 +503,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +574,10 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -561,7 +667,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -633,6 +739,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -853,8 +989,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H44" totalsRowShown="0">
-  <autoFilter ref="A1:H44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H57" totalsRowShown="0">
+  <autoFilter ref="A1:H57"/>
   <sortState ref="A2:G44">
     <sortCondition ref="A1:A44"/>
   </sortState>
@@ -1135,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,6 +2421,352 @@
       </c>
       <c r="H44" s="26" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="6">
+        <v>245</v>
+      </c>
+      <c r="D45" s="27">
+        <v>3560</v>
+      </c>
+      <c r="E45" s="9">
+        <v>32700</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="2">
+        <v>260</v>
+      </c>
+      <c r="D46" s="28">
+        <v>3580</v>
+      </c>
+      <c r="E46" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="6">
+        <v>285</v>
+      </c>
+      <c r="D47" s="27">
+        <v>3560</v>
+      </c>
+      <c r="E47" s="8">
+        <v>38100</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>47</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="29">
+        <v>280</v>
+      </c>
+      <c r="D48" s="30">
+        <v>3580</v>
+      </c>
+      <c r="E48" s="31">
+        <v>37000</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="6">
+        <v>285</v>
+      </c>
+      <c r="D49" s="28">
+        <f>3565+1370/2</f>
+        <v>4250</v>
+      </c>
+      <c r="E49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="16">
+        <v>280</v>
+      </c>
+      <c r="D50" s="32">
+        <f>3280+1350/2</f>
+        <v>3955</v>
+      </c>
+      <c r="E50" s="23">
+        <v>26000</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="24">
+        <v>50</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="33">
+        <v>285</v>
+      </c>
+      <c r="D51" s="34">
+        <f>3580+1350/2</f>
+        <v>4255</v>
+      </c>
+      <c r="E51" s="35">
+        <v>26000</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="24">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="6">
+        <v>285</v>
+      </c>
+      <c r="D52" s="27">
+        <f>3265+1370/2</f>
+        <v>3950</v>
+      </c>
+      <c r="E52" s="36">
+        <v>38100</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="2">
+        <v>280</v>
+      </c>
+      <c r="D53" s="32">
+        <v>3580</v>
+      </c>
+      <c r="E53" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="2">
+        <v>280</v>
+      </c>
+      <c r="D54" s="32">
+        <f>3280+1350/2</f>
+        <v>3955</v>
+      </c>
+      <c r="E54" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="12">
+        <v>270</v>
+      </c>
+      <c r="D55" s="32">
+        <f>3240+1320/2</f>
+        <v>3900</v>
+      </c>
+      <c r="E55" s="9">
+        <v>36000</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="24">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="6">
+        <v>345</v>
+      </c>
+      <c r="D56" s="27">
+        <f>3265+1370/2</f>
+        <v>3950</v>
+      </c>
+      <c r="E56" s="36">
+        <v>46100</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
+        <v>56</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="29">
+        <v>340</v>
+      </c>
+      <c r="D57" s="34">
+        <f>3480+1350/2</f>
+        <v>4155</v>
+      </c>
+      <c r="E57" s="31">
+        <v>46000</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
